--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3346.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3346.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196886916442818</v>
+        <v>1.193862795829773</v>
       </c>
       <c r="B1">
-        <v>2.807513848719448</v>
+        <v>3.853585481643677</v>
       </c>
       <c r="C1">
-        <v>7.354600844910521</v>
+        <v>3.154757499694824</v>
       </c>
       <c r="D1">
-        <v>2.113947785885776</v>
+        <v>2.529603481292725</v>
       </c>
       <c r="E1">
-        <v>1.184844449928402</v>
+        <v>1.365979909896851</v>
       </c>
     </row>
   </sheetData>
